--- a/biology/Zoologie/Centruroides_gracilis/Centruroides_gracilis.xlsx
+++ b/biology/Zoologie/Centruroides_gracilis/Centruroides_gracilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Centruroides gracilis est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre originellement au Mexique, au Guatemala, au Honduras et au Nicaragua[1],[2].
-Elle a été introduite aux États-Unis en Floride, aux Antilles, au Panama, en Colombie, au Venezuela, en Équateur, aux îles Canaries, au Cameroun et au Gabon[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre originellement au Mexique, au Guatemala, au Honduras et au Nicaragua,.
+Elle a été introduite aux États-Unis en Floride, aux Antilles, au Panama, en Colombie, au Venezuela, en Équateur, aux îles Canaries, au Cameroun et au Gabon.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 50 à 153 mm et les femelles de 60 à 100 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 50 à 153 mm et les femelles de 60 à 100 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Latreille, 1804 : Histoire naturelle, générale et particulière, des crustacés et des insectes. Ouvrage faisant suite aux œuvres de Leclerc de Buffon, et partie du cours complet d'histoire naturelle rédigé par C. S. Sonnini, membre de plusieurs sociétés savantes (texte intégral).</t>
         </is>
